--- a/ClientApp/src/assets/test.xlsx
+++ b/ClientApp/src/assets/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H695535\telsor\ClientApp\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C09A76B-52FA-40AD-B5F9-B224AF6BFF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF97C43-1173-4BC4-9816-9BEBB0E5C89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="1665" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18735" yWindow="1980" windowWidth="15810" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="decode" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,6 +1105,9 @@
       <c r="E5">
         <v>30</v>
       </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
       <c r="M5">
         <v>30</v>
       </c>
